--- a/114/114.xlsx
+++ b/114/114.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
   <si>
     <t xml:space="preserve">Q 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 03</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -342,7 +345,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,7 +370,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -390,7 +395,9 @@
         <f aca="false">(30/34)*10</f>
         <v>8.82352941176471</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -411,7 +418,9 @@
       <c r="B3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -432,7 +441,9 @@
       <c r="B4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -454,7 +465,9 @@
         <f aca="false">(24/34)*10</f>
         <v>7.05882352941177</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -476,7 +489,9 @@
         <f aca="false">(24/34)*10</f>
         <v>7.05882352941177</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -542,10 +557,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -554,7 +569,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -564,22 +579,22 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,11 +603,11 @@
       </c>
       <c r="B13" s="13" t="n">
         <f aca="false">SUM(B2:L2)</f>
-        <v>8.82352941176471</v>
+        <v>18.8235294117647</v>
       </c>
       <c r="C13" s="13" t="n">
         <f aca="false">(B13*40)/B10</f>
-        <v>35.2941176470588</v>
+        <v>37.6470588235294</v>
       </c>
       <c r="D13" s="14" t="n">
         <v>0</v>
@@ -602,7 +617,7 @@
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>35.2941176470588</v>
+        <v>37.6470588235294</v>
       </c>
       <c r="G13" s="16" t="n">
         <f aca="false">((F13-F21)*50)/(F22-F21)+50</f>
@@ -615,11 +630,11 @@
       </c>
       <c r="B14" s="13" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" s="13" t="n">
         <f aca="false">(B14*40)/B10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D14" s="14" t="n">
         <v>0</v>
@@ -629,11 +644,11 @@
       </c>
       <c r="F14" s="15" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G14" s="16" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,11 +657,11 @@
       </c>
       <c r="B15" s="13" t="n">
         <f aca="false">SUM(B4:L4)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15" s="13" t="n">
         <f aca="false">(B15*40)/B10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" s="14" t="n">
         <v>0</v>
@@ -656,11 +671,11 @@
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G15" s="16" t="n">
         <f aca="false">((F15-F21)*50)/(F22-F21)+50</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +688,7 @@
       </c>
       <c r="C16" s="13" t="n">
         <f aca="false">(B16*40)/B10</f>
-        <v>28.2352941176471</v>
+        <v>14.1176470588235</v>
       </c>
       <c r="D16" s="14" t="n">
         <v>0</v>
@@ -683,11 +698,11 @@
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>28.2352941176471</v>
+        <v>14.1176470588235</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,7 +715,7 @@
       </c>
       <c r="C17" s="13" t="n">
         <f aca="false">(B17*40)/B10</f>
-        <v>28.2352941176471</v>
+        <v>14.1176470588235</v>
       </c>
       <c r="D17" s="14" t="n">
         <v>0</v>
@@ -710,11 +725,11 @@
       </c>
       <c r="F17" s="15" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>28.2352941176471</v>
+        <v>14.1176470588235</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">((F17-F21)*50)/(F22-F21)+50</f>
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,20 +761,20 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="18" t="n">
         <f aca="false">MIN(F13:F17)</f>
-        <v>0</v>
+        <v>14.1176470588235</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18" t="n">
         <f aca="false">MAX(F13:F17)</f>
-        <v>35.2941176470588</v>
+        <v>37.6470588235294</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/114/114.xlsx
+++ b/114/114.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">H 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 06</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -345,7 +351,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -373,8 +379,12 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -398,8 +408,13 @@
       <c r="C2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4" t="n">
+        <f aca="false">(15/17)*10</f>
+        <v>8.82352941176471</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>10.5</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -421,8 +436,13 @@
       <c r="C3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4" t="n">
+        <f aca="false">(14/17)*10</f>
+        <v>8.23529411764706</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -444,8 +464,13 @@
       <c r="C4" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4" t="n">
+        <f aca="false">(15/17)*10</f>
+        <v>8.82352941176471</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>9.5</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -468,8 +493,12 @@
       <c r="C5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -492,8 +521,12 @@
       <c r="C6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -557,10 +590,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -569,7 +602,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -579,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,11 +636,11 @@
       </c>
       <c r="B13" s="13" t="n">
         <f aca="false">SUM(B2:L2)</f>
-        <v>18.8235294117647</v>
+        <v>38.1470588235294</v>
       </c>
       <c r="C13" s="13" t="n">
         <f aca="false">(B13*40)/B10</f>
-        <v>37.6470588235294</v>
+        <v>38.1470588235294</v>
       </c>
       <c r="D13" s="14" t="n">
         <v>0</v>
@@ -617,7 +650,7 @@
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>37.6470588235294</v>
+        <v>38.1470588235294</v>
       </c>
       <c r="G13" s="16" t="n">
         <f aca="false">((F13-F21)*50)/(F22-F21)+50</f>
@@ -630,11 +663,11 @@
       </c>
       <c r="B14" s="13" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>10</v>
+        <v>28.2352941176471</v>
       </c>
       <c r="C14" s="13" t="n">
         <f aca="false">(B14*40)/B10</f>
-        <v>20</v>
+        <v>28.2352941176471</v>
       </c>
       <c r="D14" s="14" t="n">
         <v>0</v>
@@ -644,11 +677,11 @@
       </c>
       <c r="F14" s="15" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>20</v>
+        <v>28.2352941176471</v>
       </c>
       <c r="G14" s="16" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>62.5</v>
+        <v>84.0586565752129</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,11 +690,11 @@
       </c>
       <c r="B15" s="13" t="n">
         <f aca="false">SUM(B4:L4)</f>
-        <v>10</v>
+        <v>28.3235294117647</v>
       </c>
       <c r="C15" s="13" t="n">
         <f aca="false">(B15*40)/B10</f>
-        <v>20</v>
+        <v>28.3235294117647</v>
       </c>
       <c r="D15" s="14" t="n">
         <v>0</v>
@@ -671,11 +704,11 @@
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>20</v>
+        <v>28.3235294117647</v>
       </c>
       <c r="G15" s="16" t="n">
         <f aca="false">((F15-F21)*50)/(F22-F21)+50</f>
-        <v>62.5</v>
+        <v>84.2005676442762</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,7 +721,7 @@
       </c>
       <c r="C16" s="13" t="n">
         <f aca="false">(B16*40)/B10</f>
-        <v>14.1176470588235</v>
+        <v>7.05882352941177</v>
       </c>
       <c r="D16" s="14" t="n">
         <v>0</v>
@@ -698,7 +731,7 @@
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>14.1176470588235</v>
+        <v>7.05882352941177</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
@@ -715,7 +748,7 @@
       </c>
       <c r="C17" s="13" t="n">
         <f aca="false">(B17*40)/B10</f>
-        <v>14.1176470588235</v>
+        <v>7.05882352941177</v>
       </c>
       <c r="D17" s="14" t="n">
         <v>0</v>
@@ -725,7 +758,7 @@
       </c>
       <c r="F17" s="15" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>14.1176470588235</v>
+        <v>7.05882352941177</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">((F17-F21)*50)/(F22-F21)+50</f>
@@ -761,20 +794,20 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18" t="n">
         <f aca="false">MIN(F13:F17)</f>
-        <v>14.1176470588235</v>
+        <v>7.05882352941177</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22" s="18" t="n">
         <f aca="false">MAX(F13:F17)</f>
-        <v>37.6470588235294</v>
+        <v>38.1470588235294</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/114/114.xlsx
+++ b/114/114.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">H 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 08</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -351,7 +354,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,7 +388,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -415,7 +420,9 @@
       <c r="E2" s="4" t="n">
         <v>10.5</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -443,7 +450,9 @@
       <c r="E3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -471,7 +480,9 @@
       <c r="E4" s="4" t="n">
         <v>9.5</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -499,7 +510,9 @@
       <c r="E5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -527,7 +540,9 @@
       <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -590,10 +605,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -602,7 +617,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -612,22 +627,22 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,11 +651,11 @@
       </c>
       <c r="B13" s="13" t="n">
         <f aca="false">SUM(B2:L2)</f>
-        <v>38.1470588235294</v>
+        <v>48.1470588235294</v>
       </c>
       <c r="C13" s="13" t="n">
         <f aca="false">(B13*40)/B10</f>
-        <v>38.1470588235294</v>
+        <v>38.5176470588235</v>
       </c>
       <c r="D13" s="14" t="n">
         <v>0</v>
@@ -650,7 +665,7 @@
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>38.1470588235294</v>
+        <v>38.5176470588235</v>
       </c>
       <c r="G13" s="16" t="n">
         <f aca="false">((F13-F21)*50)/(F22-F21)+50</f>
@@ -663,11 +678,11 @@
       </c>
       <c r="B14" s="13" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>28.2352941176471</v>
+        <v>38.2352941176471</v>
       </c>
       <c r="C14" s="13" t="n">
         <f aca="false">(B14*40)/B10</f>
-        <v>28.2352941176471</v>
+        <v>30.5882352941176</v>
       </c>
       <c r="D14" s="14" t="n">
         <v>0</v>
@@ -677,7 +692,7 @@
       </c>
       <c r="F14" s="15" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>28.2352941176471</v>
+        <v>30.5882352941176</v>
       </c>
       <c r="G14" s="16" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
@@ -690,11 +705,11 @@
       </c>
       <c r="B15" s="13" t="n">
         <f aca="false">SUM(B4:L4)</f>
-        <v>28.3235294117647</v>
+        <v>38.3235294117647</v>
       </c>
       <c r="C15" s="13" t="n">
         <f aca="false">(B15*40)/B10</f>
-        <v>28.3235294117647</v>
+        <v>30.6588235294118</v>
       </c>
       <c r="D15" s="14" t="n">
         <v>0</v>
@@ -704,7 +719,7 @@
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>28.3235294117647</v>
+        <v>30.6588235294118</v>
       </c>
       <c r="G15" s="16" t="n">
         <f aca="false">((F15-F21)*50)/(F22-F21)+50</f>
@@ -717,11 +732,11 @@
       </c>
       <c r="B16" s="13" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>7.05882352941177</v>
+        <v>17.0588235294118</v>
       </c>
       <c r="C16" s="13" t="n">
         <f aca="false">(B16*40)/B10</f>
-        <v>7.05882352941177</v>
+        <v>13.6470588235294</v>
       </c>
       <c r="D16" s="14" t="n">
         <v>0</v>
@@ -731,7 +746,7 @@
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>7.05882352941177</v>
+        <v>13.6470588235294</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
@@ -744,11 +759,11 @@
       </c>
       <c r="B17" s="13" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>7.05882352941177</v>
+        <v>17.0588235294118</v>
       </c>
       <c r="C17" s="13" t="n">
         <f aca="false">(B17*40)/B10</f>
-        <v>7.05882352941177</v>
+        <v>13.6470588235294</v>
       </c>
       <c r="D17" s="14" t="n">
         <v>0</v>
@@ -758,7 +773,7 @@
       </c>
       <c r="F17" s="15" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>7.05882352941177</v>
+        <v>13.6470588235294</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">((F17-F21)*50)/(F22-F21)+50</f>
@@ -794,20 +809,20 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="18" t="n">
         <f aca="false">MIN(F13:F17)</f>
-        <v>7.05882352941177</v>
+        <v>13.6470588235294</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18" t="n">
         <f aca="false">MAX(F13:F17)</f>
-        <v>38.1470588235294</v>
+        <v>38.5176470588235</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/114/114.xlsx
+++ b/114/114.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,13 +502,14 @@
         <v>7.05882352941177</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <f aca="false">(14/17)*10</f>
+        <v>8.23529411764706</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>10</v>
@@ -541,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -658,14 +659,14 @@
         <v>38.5176470588235</v>
       </c>
       <c r="D13" s="14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>38.5176470588235</v>
+        <v>110.517647058824</v>
       </c>
       <c r="G13" s="16" t="n">
         <f aca="false">((F13-F21)*50)/(F22-F21)+50</f>
@@ -685,18 +686,17 @@
         <v>30.5882352941176</v>
       </c>
       <c r="D14" s="14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14" s="14" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F14" s="15" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>30.5882352941176</v>
+        <v>100.588235294118</v>
       </c>
       <c r="G14" s="16" t="n">
-        <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>84.0586565752129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,18 +712,17 @@
         <v>30.6588235294118</v>
       </c>
       <c r="D15" s="14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>30.6588235294118</v>
+        <v>98.6588235294118</v>
       </c>
       <c r="G15" s="16" t="n">
-        <f aca="false">((F15-F21)*50)/(F22-F21)+50</f>
-        <v>84.2005676442762</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,25 +731,24 @@
       </c>
       <c r="B16" s="13" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>17.0588235294118</v>
+        <v>45.2941176470588</v>
       </c>
       <c r="C16" s="13" t="n">
         <f aca="false">(B16*40)/B10</f>
-        <v>13.6470588235294</v>
+        <v>36.2352941176471</v>
       </c>
       <c r="D16" s="14" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E16" s="14" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>13.6470588235294</v>
+        <v>102.735294117647</v>
       </c>
       <c r="G16" s="16" t="n">
-        <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,21 +757,21 @@
       </c>
       <c r="B17" s="13" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>17.0588235294118</v>
+        <v>7.05882352941177</v>
       </c>
       <c r="C17" s="13" t="n">
         <f aca="false">(B17*40)/B10</f>
-        <v>13.6470588235294</v>
+        <v>5.64705882352942</v>
       </c>
       <c r="D17" s="14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="15" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>13.6470588235294</v>
+        <v>9.64705882352942</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">((F17-F21)*50)/(F22-F21)+50</f>
@@ -813,7 +811,7 @@
       </c>
       <c r="F21" s="18" t="n">
         <f aca="false">MIN(F13:F17)</f>
-        <v>13.6470588235294</v>
+        <v>9.64705882352942</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,7 +820,7 @@
       </c>
       <c r="F22" s="18" t="n">
         <f aca="false">MAX(F13:F17)</f>
-        <v>38.5176470588235</v>
+        <v>110.517647058824</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/114/114.xlsx
+++ b/114/114.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,17 +502,16 @@
         <v>7.05882352941177</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <f aca="false">(14/17)*10</f>
-        <v>8.23529411764706</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -533,16 +532,17 @@
         <v>7.05882352941177</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <f aca="false">(14/17)*10</f>
+        <v>8.23529411764706</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -715,11 +715,11 @@
         <v>9</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>98.6588235294118</v>
+        <v>99.6588235294118</v>
       </c>
       <c r="G15" s="16" t="n">
         <v>98.66</v>
@@ -731,24 +731,25 @@
       </c>
       <c r="B16" s="13" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>45.2941176470588</v>
+        <v>7.05882352941177</v>
       </c>
       <c r="C16" s="13" t="n">
         <f aca="false">(B16*40)/B10</f>
-        <v>36.2352941176471</v>
+        <v>5.64705882352941</v>
       </c>
       <c r="D16" s="14" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="14" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>102.735294117647</v>
+        <v>9.64705882352941</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>100</v>
+        <f aca="false">((F16-F21)*50)/(F20-F21)+50</f>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,26 +757,26 @@
         <v>5</v>
       </c>
       <c r="B17" s="13" t="n">
-        <f aca="false">SUM(B6:L6)</f>
-        <v>7.05882352941177</v>
+        <f aca="false">SUM(B6:G6)</f>
+        <v>45.2941176470588</v>
       </c>
       <c r="C17" s="13" t="n">
         <f aca="false">(B17*40)/B10</f>
-        <v>5.64705882352942</v>
+        <v>36.2352941176471</v>
       </c>
       <c r="D17" s="14" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="E17" s="14" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F17" s="15" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>9.64705882352942</v>
+        <v>103.735294117647</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">((F17-F21)*50)/(F22-F21)+50</f>
-        <v>50</v>
+        <v>96.6380919057614</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,7 +812,7 @@
       </c>
       <c r="F21" s="18" t="n">
         <f aca="false">MIN(F13:F17)</f>
-        <v>9.64705882352942</v>
+        <v>9.64705882352941</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
